--- a/medicine/Enfance/Tuula_Kallioniemi/Tuula_Kallioniemi.xlsx
+++ b/medicine/Enfance/Tuula_Kallioniemi/Tuula_Kallioniemi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tuula Inkeri Kallioniemi (née Laaksonen le 22 mars 1951 à Kemi) est un écrivain finlandais de littérature jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Karkulaiset (1978)
@@ -594,13 +610,85 @@
 Valopäiden veljeskunta (2010)
 Aaveita ja avaruusolentoja (2012)
 Pako (2015)
-Série Pätkämäki (2002–2007)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tuula_Kallioniemi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tuula_Kallioniemi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Pätkämäki (2002–2007)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (fi) Pätkämäen toivot pisnesmiehinä  (ill. Jussi Kaakinen), Helsinki, Otava, 2002 (ISBN 951-1-18231-5)
 (fi) Pätkämäen toivot amatsonien armoilla  (ill. Jussi Kaakinen), Helsinki, Otava, 2003 (ISBN 951-1-18894-1)
 (fi) Pätkämäen robin hoodit  (ill. Jussi Kaakinen), Helsinki, Otava, 2004, 151 p. (ISBN 951-1-19738-X)
 (fi) Pätkämäen Tonnikihot  (ill. Jussi Kaakinen), Helsinki, Otava, 2006, 206 p. (ISBN 951-1-21315-6)
 (fi) Pätkämäen tarzanit  (ill. Jussi Kaakinen), Helsinki, Otava, 2007 (ISBN 978-951-1-21672-8)
-Série Konsta (1999–2012)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tuula_Kallioniemi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tuula_Kallioniemi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Konsta (1999–2012)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (fi) Kotikujan Konsta  (ill. Leena Lumme), Helsinki, Otava, 1999 (ISBN 978-951-1-15935-3)
 (fi) Konsta, eka A  (ill. Leena Lumme), Helsinki, Otava, 2004 (ISBN 978-951-1-19713-3)
 (fi) Koulu on kivaa, Konsta  (ill. Leena Lumme), Helsinki, Otava, 2005 (ISBN 978-951-1-20100-7)
@@ -617,35 +705,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tuula_Kallioniemi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tuula_Kallioniemi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Topelius, 1979
 Prix de la littérature de l'État finlandais, 1985, 2012
-(international) « Honour List » 1986[1] de l' IBBY, catégorie Auteur, pour Kuinka Sepontyttö vapautti taivaanvalot (illustrations de Ulla Vaajakallio)
+(international) « Honour List » 1986 de l' IBBY, catégorie Auteur, pour Kuinka Sepontyttö vapautti taivaanvalot (illustrations de Ulla Vaajakallio)
 Médaille Anni Swan, 1994
 Prix Kaarina Helakisa, 1999
 Prix Pertsa et Kilu, 2000
